--- a/String.xlsx
+++ b/String.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="rev&amp;palindrome" sheetId="1" r:id="rId1"/>
@@ -615,6 +615,100 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
+          <a:ext cx="13011150" cy="7315200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7620000"/>
+          <a:ext cx="13011150" cy="7315200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15430500"/>
           <a:ext cx="13011150" cy="7315200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1603,8 +1697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="H2:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1684,7 +1778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
